--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>009847</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>96.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>009848</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>96.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>398061</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中海消费混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501051</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>圆信永丰汇利混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008499</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008500</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501051</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰汇利混合（LOF）</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008416</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.89</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008417</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.89</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005664</t>
+          <t>005642</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景欣混合A</t>
+          <t>鹏扬景升灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005665</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬景欣混合C</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005642</t>
+          <t>501051</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合A</t>
+          <t>圆信永丰汇利混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005643</t>
+          <t>005664</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合C</t>
+          <t>鹏扬景欣混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>008499</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>鹏扬景科混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>31.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009848</t>
+          <t>008416</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合C</t>
+          <t>鹏扬景瑞三年定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>005643</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>鹏扬景升灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>001983</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
+          <t>中邮低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>005665</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>鹏扬景欣混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>008500</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>鹏扬景科混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>31.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001983</t>
+          <t>009848</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮低碳经济灵活配置混合</t>
+          <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008499</t>
+          <t>000825</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬景科混合A</t>
+          <t>圆信永丰双红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31.70</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008500</t>
+          <t>008417</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏扬景科混合C</t>
+          <t>鹏扬景瑞三年定期开放混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31.70</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.68</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.16</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.87</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3585,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3596,17 +3597,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3616,14 +3637,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.12</v>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3632,14 +3675,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.68</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3648,14 +3713,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.16</v>
       </c>
     </row>
     <row r="5">
@@ -3664,14 +3751,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.87</v>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3680,13 +3789,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,17 +3844,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3863,14 +3884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3879,14 +3922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.12</v>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3895,14 +3960,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.68</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -3911,14 +4082,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>5.16</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="6">
@@ -3927,14 +4098,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.87</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="7">
@@ -3943,13 +4114,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>17</v>
       </c>
       <c r="D7" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.74</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.12</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.68</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>5.16</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5.87</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>17</v>
       </c>
       <c r="D8" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.83</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1015,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2733,708 +2958,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6115</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7831</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3349</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>398061</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海消费混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3212</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1874</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501051</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰汇利混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1374</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008499</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>31.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008500</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>31.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3500,6 +3023,708 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>398021</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
+++ b/数据整理/stocks/A股/创业板/300866-安克创新.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.12</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.68</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>5.16</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>5.87</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>17</v>
       </c>
       <c r="D9" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +1392,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009010</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏兴阳一年持有期混合</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9649</t>
+          <t>0.2664</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1430,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>48.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3328</t>
+          <t>0.1692</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1468,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160425</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安创业板两年定期开放混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>48.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -787,32 +1506,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006992</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉合锦创优势精选混合</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.53</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,6 +1544,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1714,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2958,708 +3885,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6115</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7831</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3349</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>398061</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海消费混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3212</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1874</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501051</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰汇利混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1374</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008499</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>31.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008500</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬景科混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>31.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3725,36 +3950,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6238</t>
+          <t>3.6115</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3763,36 +3988,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.11</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4707</t>
+          <t>0.7831</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3801,32 +4026,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3555</t>
+          <t>0.3349</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3839,36 +4064,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3260</t>
+          <t>0.3212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3877,36 +4102,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>005642</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>鹏扬景升灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2440</t>
+          <t>0.2024</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3915,36 +4140,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005642</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合A</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2384</t>
+          <t>0.1874</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3963,26 +4188,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1575</t>
+          <t>0.1374</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4001,26 +4226,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>27.85</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1485</t>
+          <t>0.1166</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4039,26 +4264,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>31.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0906</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -4067,36 +4292,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>008416</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>鹏扬景瑞三年定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>28.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0573</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -4105,36 +4330,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008416</t>
+          <t>005643</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
+          <t>鹏扬景升灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28.33</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0421</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -4143,36 +4368,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005643</t>
+          <t>001983</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合C</t>
+          <t>中邮低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>83.28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -4196,21 +4421,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>27.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -4234,21 +4459,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>31.70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -4272,21 +4497,21 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>96.11</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -4310,21 +4535,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4348,17 +4573,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28.33</t>
+          <t>28.89</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H18" t="n">
